--- a/resultado_80.xlsx
+++ b/resultado_80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="304">
   <si>
     <t>Texto</t>
   </si>
@@ -920,6 +920,12 @@
   </si>
   <si>
     <t>Acurácia: 92.85714285714286%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> noticia_verdadeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> noticia_falsa</t>
   </si>
 </sst>
 </file>
@@ -1261,17 +1267,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="100.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="30.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="25.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="20.7109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1331,6 +1337,12 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.650291202373563</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -1354,6 +1366,12 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.5925246707279457</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -1377,6 +1395,12 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.6169327040020454</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -1400,6 +1424,12 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.558663629438741</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -1423,6 +1453,12 @@
       <c r="I6">
         <v>-1</v>
       </c>
+      <c r="J6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1.8214385973712004</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -1446,6 +1482,12 @@
       <c r="I7">
         <v>-1</v>
       </c>
+      <c r="J7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-3.159715595569641</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -1469,6 +1511,12 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.653134097385499</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -1492,6 +1540,12 @@
       <c r="I9">
         <v>-1</v>
       </c>
+      <c r="J9" t="s">
+        <v>303</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-3.118720478888805</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -1515,6 +1569,12 @@
       <c r="I10">
         <v>-1</v>
       </c>
+      <c r="J10" t="s">
+        <v>303</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-3.159715595569641</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -1538,6 +1598,12 @@
       <c r="I11">
         <v>-1</v>
       </c>
+      <c r="J11" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-3.0439865758427107</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -1561,6 +1627,12 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>302</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -1584,6 +1656,12 @@
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13" t="s">
+        <v>302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -1607,6 +1685,12 @@
       <c r="I14">
         <v>-1</v>
       </c>
+      <c r="J14" t="s">
+        <v>303</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-3.1475110448483528</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -1630,6 +1714,12 @@
       <c r="I15">
         <v>-1</v>
       </c>
+      <c r="J15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-3.1070790590128907</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -1653,6 +1743,12 @@
       <c r="I16">
         <v>-1</v>
       </c>
+      <c r="J16" t="s">
+        <v>303</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-3.119645364443026</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -1676,6 +1772,12 @@
       <c r="I17">
         <v>-1</v>
       </c>
+      <c r="J17" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-3.144281201671821</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
@@ -1699,6 +1801,12 @@
       <c r="I18">
         <v>-1</v>
       </c>
+      <c r="J18" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-3.159715595569641</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
@@ -1722,6 +1830,12 @@
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="J19" t="s">
+        <v>302</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.644238821455261</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -1745,6 +1859,12 @@
       <c r="I20">
         <v>1</v>
       </c>
+      <c r="J20" t="s">
+        <v>302</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -1768,6 +1888,12 @@
       <c r="I21">
         <v>1</v>
       </c>
+      <c r="J21" t="s">
+        <v>302</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.484543211301708</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -1791,6 +1917,12 @@
       <c r="I22">
         <v>-1</v>
       </c>
+      <c r="J22" t="s">
+        <v>303</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-2.8603253709939747</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -1814,6 +1946,12 @@
       <c r="I23">
         <v>-1</v>
       </c>
+      <c r="J23" t="s">
+        <v>303</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-3.017077547212818</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -1837,6 +1975,12 @@
       <c r="I24">
         <v>1</v>
       </c>
+      <c r="J24" t="s">
+        <v>302</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.545612478609883</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -1860,6 +2004,12 @@
       <c r="I25">
         <v>-1</v>
       </c>
+      <c r="J25" t="s">
+        <v>303</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-3.05952234467865</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
@@ -1883,6 +2033,12 @@
       <c r="I26">
         <v>-1</v>
       </c>
+      <c r="J26" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-3.0955081097178634</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
@@ -1906,6 +2062,12 @@
       <c r="I27">
         <v>-1</v>
       </c>
+      <c r="J27" t="s">
+        <v>303</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-3.159715595569641</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
@@ -1929,6 +2091,12 @@
       <c r="I28">
         <v>1</v>
       </c>
+      <c r="J28" t="s">
+        <v>302</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.608526465403542</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
@@ -1952,6 +2120,12 @@
       <c r="I29">
         <v>-1</v>
       </c>
+      <c r="J29" t="s">
+        <v>303</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-3.138166647957174</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
@@ -1975,6 +2149,12 @@
       <c r="I30">
         <v>1</v>
       </c>
+      <c r="J30" t="s">
+        <v>302</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.58234041071836</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
@@ -1998,6 +2178,12 @@
       <c r="I31">
         <v>-1</v>
       </c>
+      <c r="J31" t="s">
+        <v>303</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-3.103283476269512</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
@@ -2021,6 +2207,12 @@
       <c r="I32">
         <v>-1</v>
       </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-3.07989516081973</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
@@ -2044,6 +2236,12 @@
       <c r="I33">
         <v>1</v>
       </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.6116108490385503</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -2067,6 +2265,12 @@
       <c r="I34">
         <v>-1</v>
       </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-1.90272775494767</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -2090,6 +2294,12 @@
       <c r="I35">
         <v>-1</v>
       </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-2.155781098723915</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
@@ -2113,6 +2323,12 @@
       <c r="I36">
         <v>1</v>
       </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -2136,6 +2352,12 @@
       <c r="I37">
         <v>-1</v>
       </c>
+      <c r="J37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.8406765398940996</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -2159,6 +2381,12 @@
       <c r="I38">
         <v>-1</v>
       </c>
+      <c r="J38" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-2.0404279715259173</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -2182,6 +2410,12 @@
       <c r="I39">
         <v>-1</v>
       </c>
+      <c r="J39" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-3.129839370797778</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
@@ -2205,6 +2439,12 @@
       <c r="I40">
         <v>1</v>
       </c>
+      <c r="J40" t="s">
+        <v>302</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.545403357161034</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -2228,6 +2468,12 @@
       <c r="I41">
         <v>1</v>
       </c>
+      <c r="J41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.604183673522711</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -2251,6 +2497,12 @@
       <c r="I42">
         <v>1</v>
       </c>
+      <c r="J42" t="s">
+        <v>302</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.5496329816823056</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
@@ -2274,6 +2526,12 @@
       <c r="I43">
         <v>1</v>
       </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.487137099629476</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
@@ -2297,6 +2555,12 @@
       <c r="I44">
         <v>1</v>
       </c>
+      <c r="J44" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.5980246920355214</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
@@ -2320,6 +2584,12 @@
       <c r="I45">
         <v>1</v>
       </c>
+      <c r="J45" t="s">
+        <v>302</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.633431607737726</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
@@ -2343,6 +2613,12 @@
       <c r="I46">
         <v>-1</v>
       </c>
+      <c r="J46" t="s">
+        <v>303</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-3.058827352160489</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
@@ -2366,6 +2642,12 @@
       <c r="I47">
         <v>1</v>
       </c>
+      <c r="J47" t="s">
+        <v>302</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.4791637724176576</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
@@ -2389,6 +2671,12 @@
       <c r="I48">
         <v>0.92</v>
       </c>
+      <c r="J48" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-3.1100659871827747</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
@@ -2412,6 +2700,12 @@
       <c r="I49">
         <v>1</v>
       </c>
+      <c r="J49" t="s">
+        <v>302</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.5638610965790423</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
@@ -2435,6 +2729,12 @@
       <c r="I50">
         <v>1</v>
       </c>
+      <c r="J50" t="s">
+        <v>302</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.586029305024013</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
@@ -2458,6 +2758,12 @@
       <c r="I51">
         <v>1</v>
       </c>
+      <c r="J51" t="s">
+        <v>302</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.648080061414369</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -2481,6 +2787,12 @@
       <c r="I52">
         <v>-1</v>
       </c>
+      <c r="J52" t="s">
+        <v>303</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-3.116586491866613</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -2504,6 +2816,12 @@
       <c r="I53">
         <v>0.53</v>
       </c>
+      <c r="J53" t="s">
+        <v>303</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-3.0820309487982196</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -2527,6 +2845,12 @@
       <c r="I54">
         <v>1</v>
       </c>
+      <c r="J54" t="s">
+        <v>302</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.6522117722210163</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -2550,6 +2874,12 @@
       <c r="I55">
         <v>1</v>
       </c>
+      <c r="J55" t="s">
+        <v>302</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.559136222397641</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -2573,6 +2903,12 @@
       <c r="I56">
         <v>1</v>
       </c>
+      <c r="J56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
@@ -2596,6 +2932,12 @@
       <c r="I57">
         <v>1</v>
       </c>
+      <c r="J57" t="s">
+        <v>302</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.5923928459486234</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -2619,6 +2961,12 @@
       <c r="I58">
         <v>1</v>
       </c>
+      <c r="J58" t="s">
+        <v>302</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.515817525857534</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -2642,6 +2990,12 @@
       <c r="I59">
         <v>1</v>
       </c>
+      <c r="J59" t="s">
+        <v>302</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.5265643634952806</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -2665,6 +3019,12 @@
       <c r="I60">
         <v>-1</v>
       </c>
+      <c r="J60" t="s">
+        <v>303</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-3.1235146067407147</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
@@ -2688,6 +3048,12 @@
       <c r="I61">
         <v>-1</v>
       </c>
+      <c r="J61" t="s">
+        <v>303</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-3.1287171118974566</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
@@ -2711,6 +3077,12 @@
       <c r="I62">
         <v>1</v>
       </c>
+      <c r="J62" t="s">
+        <v>302</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.6432023044101705</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
@@ -2734,6 +3106,12 @@
       <c r="I63">
         <v>1</v>
       </c>
+      <c r="J63" t="s">
+        <v>302</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.6292405179190563</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
@@ -2757,6 +3135,12 @@
       <c r="I64">
         <v>1</v>
       </c>
+      <c r="J64" t="s">
+        <v>302</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
@@ -2780,6 +3164,12 @@
       <c r="I65">
         <v>1</v>
       </c>
+      <c r="J65" t="s">
+        <v>302</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.5390269347985535</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
@@ -2803,6 +3193,12 @@
       <c r="I66">
         <v>1</v>
       </c>
+      <c r="J66" t="s">
+        <v>302</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2.5722531037832437</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
@@ -2826,6 +3222,12 @@
       <c r="I67">
         <v>1</v>
       </c>
+      <c r="J67" t="s">
+        <v>302</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2.649936886755687</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
@@ -2849,6 +3251,12 @@
       <c r="I68">
         <v>1</v>
       </c>
+      <c r="J68" t="s">
+        <v>302</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.589576921686912</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
@@ -2872,6 +3280,12 @@
       <c r="I69">
         <v>-1</v>
       </c>
+      <c r="J69" t="s">
+        <v>303</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-3.109084594145027</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
@@ -2895,6 +3309,12 @@
       <c r="I70">
         <v>1</v>
       </c>
+      <c r="J70" t="s">
+        <v>302</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.5752580268792555</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
@@ -2918,6 +3338,12 @@
       <c r="I71">
         <v>-1</v>
       </c>
+      <c r="J71" t="s">
+        <v>303</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-3.1527670530687506</v>
+      </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
@@ -2941,6 +3367,12 @@
       <c r="I72">
         <v>1</v>
       </c>
+      <c r="J72" t="s">
+        <v>302</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.6246065579454</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
@@ -2964,6 +3396,12 @@
       <c r="I73">
         <v>1</v>
       </c>
+      <c r="J73" t="s">
+        <v>302</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
@@ -2984,6 +3422,12 @@
       <c r="I74">
         <v>-1</v>
       </c>
+      <c r="J74" t="s">
+        <v>303</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-3.047520311871984</v>
+      </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
@@ -3007,6 +3451,12 @@
       <c r="I75">
         <v>1</v>
       </c>
+      <c r="J75" t="s">
+        <v>302</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2.615758903803784</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
@@ -3030,6 +3480,12 @@
       <c r="I76">
         <v>-1</v>
       </c>
+      <c r="J76" t="s">
+        <v>303</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-3.0885679245840176</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
@@ -3053,6 +3509,12 @@
       <c r="I77">
         <v>-1</v>
       </c>
+      <c r="J77" t="s">
+        <v>303</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-3.1576581899759653</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
@@ -3076,6 +3538,12 @@
       <c r="I78">
         <v>-1</v>
       </c>
+      <c r="J78" t="s">
+        <v>303</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-3.0436969785130277</v>
+      </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
@@ -3099,6 +3567,12 @@
       <c r="I79">
         <v>1</v>
       </c>
+      <c r="J79" t="s">
+        <v>302</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2.597839804567585</v>
+      </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
@@ -3122,6 +3596,12 @@
       <c r="I80">
         <v>1</v>
       </c>
+      <c r="J80" t="s">
+        <v>302</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2.5612840610756913</v>
+      </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
@@ -3145,6 +3625,12 @@
       <c r="I81">
         <v>1</v>
       </c>
+      <c r="J81" t="s">
+        <v>302</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.6208007537389064</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
@@ -3168,6 +3654,12 @@
       <c r="I82">
         <v>1</v>
       </c>
+      <c r="J82" t="s">
+        <v>303</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-3.0823555211010376</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
@@ -3191,6 +3683,12 @@
       <c r="I83">
         <v>1</v>
       </c>
+      <c r="J83" t="s">
+        <v>302</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.647259364087015</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -3214,6 +3712,12 @@
       <c r="I84">
         <v>1</v>
       </c>
+      <c r="J84" t="s">
+        <v>302</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2.579031113854948</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
@@ -3237,6 +3741,12 @@
       <c r="I85">
         <v>1</v>
       </c>
+      <c r="J85" t="s">
+        <v>302</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2.5803334483797924</v>
+      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
@@ -3260,6 +3770,12 @@
       <c r="I86">
         <v>1</v>
       </c>
+      <c r="J86" t="s">
+        <v>302</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2.6512624065556865</v>
+      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
@@ -3283,6 +3799,12 @@
       <c r="I87">
         <v>1</v>
       </c>
+      <c r="J87" t="s">
+        <v>302</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.6488573102179775</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
@@ -3306,6 +3828,12 @@
       <c r="I88">
         <v>1</v>
       </c>
+      <c r="J88" t="s">
+        <v>302</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.516714032336501</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
@@ -3329,6 +3857,12 @@
       <c r="I89">
         <v>-1</v>
       </c>
+      <c r="J89" t="s">
+        <v>303</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-3.1253289976682055</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -3352,6 +3886,12 @@
       <c r="I90">
         <v>-1</v>
       </c>
+      <c r="J90" t="s">
+        <v>303</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-3.159715595569641</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
@@ -3375,6 +3915,12 @@
       <c r="I91">
         <v>1</v>
       </c>
+      <c r="J91" t="s">
+        <v>302</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
@@ -3398,6 +3944,12 @@
       <c r="I92">
         <v>1</v>
       </c>
+      <c r="J92" t="s">
+        <v>302</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.6413415785039875</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -3421,6 +3973,12 @@
       <c r="I93">
         <v>1</v>
       </c>
+      <c r="J93" t="s">
+        <v>302</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.5282158206335286</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
@@ -3444,6 +4002,12 @@
       <c r="I94">
         <v>1</v>
       </c>
+      <c r="J94" t="s">
+        <v>302</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
@@ -3467,6 +4031,12 @@
       <c r="I95">
         <v>1</v>
       </c>
+      <c r="J95" t="s">
+        <v>302</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.6486125830796885</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
@@ -3490,6 +4060,12 @@
       <c r="I96">
         <v>-1</v>
       </c>
+      <c r="J96" t="s">
+        <v>303</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.6092038691831878</v>
+      </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
@@ -3513,6 +4089,12 @@
       <c r="I97">
         <v>1</v>
       </c>
+      <c r="J97" t="s">
+        <v>302</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.6433834390710933</v>
+      </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
@@ -3536,6 +4118,12 @@
       <c r="I98">
         <v>1</v>
       </c>
+      <c r="J98" t="s">
+        <v>302</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.597680202562515</v>
+      </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
@@ -3556,6 +4144,12 @@
       <c r="I99">
         <v>-1</v>
       </c>
+      <c r="J99" t="s">
+        <v>303</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-3.047520311871984</v>
+      </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
@@ -3579,6 +4173,12 @@
       <c r="I100">
         <v>1</v>
       </c>
+      <c r="J100" t="s">
+        <v>302</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.586982952101823</v>
+      </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
@@ -3602,6 +4202,12 @@
       <c r="I101">
         <v>1</v>
       </c>
+      <c r="J101" t="s">
+        <v>302</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2.5348945660271602</v>
+      </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
@@ -3625,6 +4231,12 @@
       <c r="I102">
         <v>1</v>
       </c>
+      <c r="J102" t="s">
+        <v>302</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2.4858789402982304</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
@@ -3648,6 +4260,12 @@
       <c r="I103">
         <v>0.89</v>
       </c>
+      <c r="J103" t="s">
+        <v>302</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2.6477387260943965</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
@@ -3671,6 +4289,12 @@
       <c r="I104">
         <v>1</v>
       </c>
+      <c r="J104" t="s">
+        <v>302</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
@@ -3694,6 +4318,12 @@
       <c r="I105">
         <v>1</v>
       </c>
+      <c r="J105" t="s">
+        <v>302</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2.579472011582292</v>
+      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
@@ -3717,6 +4347,12 @@
       <c r="I106">
         <v>1</v>
       </c>
+      <c r="J106" t="s">
+        <v>302</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2.618353650278341</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
@@ -3740,6 +4376,12 @@
       <c r="I107">
         <v>1</v>
       </c>
+      <c r="J107" t="s">
+        <v>302</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2.585791072664693</v>
+      </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
@@ -3763,6 +4405,12 @@
       <c r="I108">
         <v>-1</v>
       </c>
+      <c r="J108" t="s">
+        <v>303</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-3.07989516081973</v>
+      </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
@@ -3786,6 +4434,12 @@
       <c r="I109">
         <v>1</v>
       </c>
+      <c r="J109" t="s">
+        <v>302</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2.613568577712326</v>
+      </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
@@ -3809,6 +4463,12 @@
       <c r="I110">
         <v>1</v>
       </c>
+      <c r="J110" t="s">
+        <v>302</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2.646893600052788</v>
+      </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
@@ -3832,6 +4492,12 @@
       <c r="I111">
         <v>1</v>
       </c>
+      <c r="J111" t="s">
+        <v>302</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2.567972829954487</v>
+      </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
@@ -3855,6 +4521,12 @@
       <c r="I112">
         <v>1</v>
       </c>
+      <c r="J112" t="s">
+        <v>302</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2.617087742527518</v>
+      </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
@@ -3878,6 +4550,12 @@
       <c r="I113">
         <v>1</v>
       </c>
+      <c r="J113" t="s">
+        <v>302</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2.611555730996909</v>
+      </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
@@ -3901,6 +4579,12 @@
       <c r="I114">
         <v>1</v>
       </c>
+      <c r="J114" t="s">
+        <v>302</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2.5849472380248177</v>
+      </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
@@ -3924,6 +4608,12 @@
       <c r="I115">
         <v>-1</v>
       </c>
+      <c r="J115" t="s">
+        <v>303</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-3.1426929822387697</v>
+      </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
@@ -3947,6 +4637,12 @@
       <c r="I116">
         <v>-1</v>
       </c>
+      <c r="J116" t="s">
+        <v>303</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-3.157542311759352</v>
+      </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
@@ -3970,6 +4666,12 @@
       <c r="I117">
         <v>1</v>
       </c>
+      <c r="J117" t="s">
+        <v>302</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.5208079963814787</v>
+      </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
@@ -3993,6 +4695,12 @@
       <c r="I118">
         <v>1</v>
       </c>
+      <c r="J118" t="s">
+        <v>302</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2.645678671204246</v>
+      </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
@@ -4016,6 +4724,12 @@
       <c r="I119">
         <v>1</v>
       </c>
+      <c r="J119" t="s">
+        <v>302</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2.641781403573461</v>
+      </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
@@ -4039,6 +4753,12 @@
       <c r="I120">
         <v>-1</v>
       </c>
+      <c r="J120" t="s">
+        <v>303</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-0.9423147753634361</v>
+      </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
@@ -4062,6 +4782,12 @@
       <c r="I121">
         <v>-1</v>
       </c>
+      <c r="J121" t="s">
+        <v>303</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-3.128154580194834</v>
+      </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
@@ -4085,6 +4811,12 @@
       <c r="I122">
         <v>-1</v>
       </c>
+      <c r="J122" t="s">
+        <v>303</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-3.1554859147007535</v>
+      </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
@@ -4108,6 +4840,12 @@
       <c r="I123">
         <v>1</v>
       </c>
+      <c r="J123" t="s">
+        <v>302</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.6516599560973684</v>
+      </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
@@ -4131,6 +4869,12 @@
       <c r="I124">
         <v>1</v>
       </c>
+      <c r="J124" t="s">
+        <v>303</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-3.1418369109809023</v>
+      </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
@@ -4154,6 +4898,12 @@
       <c r="I125">
         <v>1</v>
       </c>
+      <c r="J125" t="s">
+        <v>302</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
@@ -4177,6 +4927,12 @@
       <c r="I126">
         <v>-1</v>
       </c>
+      <c r="J126" t="s">
+        <v>303</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-3.1580193494619184</v>
+      </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
@@ -4200,6 +4956,12 @@
       <c r="I127">
         <v>1</v>
       </c>
+      <c r="J127" t="s">
+        <v>302</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2.654262791023186</v>
+      </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
@@ -4223,6 +4985,12 @@
       <c r="I128">
         <v>-1</v>
       </c>
+      <c r="J128" t="s">
+        <v>303</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-3.0415834538947113</v>
+      </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
@@ -4246,6 +5014,12 @@
       <c r="I129">
         <v>-1</v>
       </c>
+      <c r="J129" t="s">
+        <v>303</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-3.0812489654001856</v>
+      </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
@@ -4269,6 +5043,12 @@
       <c r="I130">
         <v>-1</v>
       </c>
+      <c r="J130" t="s">
+        <v>303</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-2.999404560749909</v>
+      </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
@@ -4292,6 +5072,12 @@
       <c r="I131">
         <v>-1</v>
       </c>
+      <c r="J131" t="s">
+        <v>303</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-2.9914883511948225</v>
+      </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
@@ -4315,6 +5101,12 @@
       <c r="I132">
         <v>1</v>
       </c>
+      <c r="J132" t="s">
+        <v>302</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2.615867539602429</v>
+      </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
@@ -4338,6 +5130,12 @@
       <c r="I133">
         <v>1</v>
       </c>
+      <c r="J133" t="s">
+        <v>302</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2.5598444634411783</v>
+      </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
@@ -4361,6 +5159,12 @@
       <c r="I134">
         <v>-1</v>
       </c>
+      <c r="J134" t="s">
+        <v>303</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-3.1375396148116854</v>
+      </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
@@ -4384,6 +5188,12 @@
       <c r="I135">
         <v>-1</v>
       </c>
+      <c r="J135" t="s">
+        <v>303</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-3.0125632417694543</v>
+      </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
@@ -4407,6 +5217,12 @@
       <c r="I136">
         <v>-1</v>
       </c>
+      <c r="J136" t="s">
+        <v>303</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-3.0799490018449065</v>
+      </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
@@ -4430,6 +5246,12 @@
       <c r="I137">
         <v>-1</v>
       </c>
+      <c r="J137" t="s">
+        <v>303</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-3.159715595569641</v>
+      </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
@@ -4453,6 +5275,12 @@
       <c r="I138">
         <v>-1</v>
       </c>
+      <c r="J138" t="s">
+        <v>303</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-2.994045215923111</v>
+      </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
@@ -4476,6 +5304,12 @@
       <c r="I139">
         <v>-1</v>
       </c>
+      <c r="J139" t="s">
+        <v>303</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-3.1429204380758917</v>
+      </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
@@ -4499,6 +5333,12 @@
       <c r="I140">
         <v>-1</v>
       </c>
+      <c r="J140" t="s">
+        <v>303</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-3.087717973403436</v>
+      </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
@@ -4522,6 +5362,12 @@
       <c r="I141">
         <v>-1</v>
       </c>
+      <c r="J141" t="s">
+        <v>303</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-3.159715595569641</v>
+      </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
@@ -4545,6 +5391,12 @@
       <c r="I142">
         <v>-1</v>
       </c>
+      <c r="J142" t="s">
+        <v>303</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-3.1086468947491572</v>
+      </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
@@ -4568,6 +5420,12 @@
       <c r="I143">
         <v>-1</v>
       </c>
+      <c r="J143" t="s">
+        <v>303</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-3.1408527610143833</v>
+      </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
@@ -4591,6 +5449,12 @@
       <c r="I144">
         <v>-1</v>
       </c>
+      <c r="J144" t="s">
+        <v>303</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-3.154273062171912</v>
+      </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
@@ -4613,6 +5477,12 @@
       </c>
       <c r="I145">
         <v>-1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>303</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-3.1126199537189327</v>
       </c>
     </row>
     <row r="146" spans="1:9">
